--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-4.209122745017114</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.00303276314924</v>
+        <v>-10.83842479094708</v>
       </c>
       <c r="F2" t="n">
-        <v>5.677755099057268</v>
+        <v>5.764984759576764</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.62412169000612</v>
+        <v>-19.55523558325129</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.529090560404265</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.33264960611665</v>
+        <v>-11.18100239111868</v>
       </c>
       <c r="F3" t="n">
-        <v>5.626591642195003</v>
+        <v>5.702581475927462</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.06592910898984</v>
+        <v>-19.01072244344864</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.878625310632908</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.40413177551781</v>
+        <v>-11.25531529549579</v>
       </c>
       <c r="F4" t="n">
-        <v>5.451262077933699</v>
+        <v>5.523003364698809</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.26020122129479</v>
+        <v>-18.19767571247381</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.32549514723763</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.8700247958936</v>
+        <v>-11.72922628713332</v>
       </c>
       <c r="F5" t="n">
-        <v>5.720563243183975</v>
+        <v>5.783269645259026</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.71646054457711</v>
+        <v>-17.63231584739064</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.841898690443203</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.24465961409156</v>
+        <v>-12.1239695905749</v>
       </c>
       <c r="F6" t="n">
-        <v>5.588501389694869</v>
+        <v>5.648587284089253</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.31742469310638</v>
+        <v>-17.24802035162365</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.422695246454522</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.12587376781178</v>
+        <v>-13.00319391850029</v>
       </c>
       <c r="F7" t="n">
-        <v>5.618285219528115</v>
+        <v>5.68187164283921</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.50002185701313</v>
+        <v>-16.43367314482223</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.041352711955745</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.95875031063881</v>
+        <v>-13.86032482439408</v>
       </c>
       <c r="F8" t="n">
-        <v>5.876644787410235</v>
+        <v>5.940822780552228</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.11909977598432</v>
+        <v>-16.05583113811958</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.684675859947141</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.51857581994864</v>
+        <v>-14.41084655363617</v>
       </c>
       <c r="F9" t="n">
-        <v>6.027734655625375</v>
+        <v>6.1017493305836</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.07983127282926</v>
+        <v>-16.00782597969334</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.333468194033078</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.26852502829906</v>
+        <v>-15.16797771307409</v>
       </c>
       <c r="F10" t="n">
-        <v>6.379899598262992</v>
+        <v>6.459971752729325</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.37752054739006</v>
+        <v>-15.33496174261357</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0198803712685108</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.59011412199099</v>
+        <v>-15.47445488654038</v>
       </c>
       <c r="F11" t="n">
-        <v>6.305762698133094</v>
+        <v>6.380364053915349</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.73353567387316</v>
+        <v>-14.67484314643584</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.379356999682635</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.64239951499143</v>
+        <v>-16.53939791831927</v>
       </c>
       <c r="F12" t="n">
-        <v>6.716845062523904</v>
+        <v>6.780744382274482</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.42786029753303</v>
+        <v>-14.35905730389494</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.742095574263577</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.20458152561111</v>
+        <v>-17.09621668840594</v>
       </c>
       <c r="F13" t="n">
-        <v>7.008806774602331</v>
+        <v>7.072637648256772</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.9066921655199</v>
+        <v>-13.83674514427495</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.099759133928352</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.5053213585813</v>
+        <v>-18.38499312157279</v>
       </c>
       <c r="F14" t="n">
-        <v>7.081056518081599</v>
+        <v>7.14243311028885</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.33674641199556</v>
+        <v>-13.26813408962527</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.443176400450507</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.65773614765738</v>
+        <v>-18.545191209581</v>
       </c>
       <c r="F15" t="n">
-        <v>7.127198964891543</v>
+        <v>7.171156025631976</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.75875335316827</v>
+        <v>-12.68631293842119</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.765376478147731</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.87185255695957</v>
+        <v>-19.75613465342656</v>
       </c>
       <c r="F16" t="n">
-        <v>7.161089560492997</v>
+        <v>7.198510019052364</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.6990048002477</v>
+        <v>-12.63543793296408</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.06283408213364</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.90800911630605</v>
+        <v>-20.78789599559969</v>
       </c>
       <c r="F17" t="n">
-        <v>7.597741430797772</v>
+        <v>7.647780416080646</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.32508866605918</v>
+        <v>-12.23796167468389</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.33467952912026</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.55646743110619</v>
+        <v>-21.42435179854154</v>
       </c>
       <c r="F18" t="n">
-        <v>7.865522114912437</v>
+        <v>7.905890644612554</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.65175508432019</v>
+        <v>-11.57289540355685</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.587152752978349</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.25822080976256</v>
+        <v>-22.11664494891043</v>
       </c>
       <c r="F19" t="n">
-        <v>7.719639039010563</v>
+        <v>7.760985370084062</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.06444357840456</v>
+        <v>-10.96354425468517</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.823567304838572</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.19019263277508</v>
+        <v>-23.04523357917106</v>
       </c>
       <c r="F20" t="n">
-        <v>7.697389168759233</v>
+        <v>7.74571211263182</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.35050190562897</v>
+        <v>-10.27314803898064</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.053268623502808</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.99248354864269</v>
+        <v>-23.82681466195042</v>
       </c>
       <c r="F21" t="n">
-        <v>7.962906242694516</v>
+        <v>7.992210949854805</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.778561437302926</v>
+        <v>-9.723648112173738</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.282444419252582</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.3903118154173</v>
+        <v>-24.21704052304696</v>
       </c>
       <c r="F22" t="n">
-        <v>7.867428827590534</v>
+        <v>7.911659672715514</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.179565204975374</v>
+        <v>-9.134454338614349</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.514057527015464</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.06327872164127</v>
+        <v>-24.87488573103157</v>
       </c>
       <c r="F23" t="n">
-        <v>7.886197724952621</v>
+        <v>7.928927644969457</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.493793989766948</v>
+        <v>-8.452589439892588</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.755032695796642</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.64551543842904</v>
+        <v>-25.46956985930251</v>
       </c>
       <c r="F24" t="n">
-        <v>8.264010397614074</v>
+        <v>8.284725119709194</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.092020294450744</v>
+        <v>-8.048649914534341</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.001391884397634</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.89046934948208</v>
+        <v>-25.71116991164484</v>
       </c>
       <c r="F25" t="n">
-        <v>8.003084101126824</v>
+        <v>8.034510637267353</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.805812943454677</v>
+        <v>-7.75403347172718</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.25599586969946</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.06614114422407</v>
+        <v>-25.86639587966939</v>
       </c>
       <c r="F26" t="n">
-        <v>8.068479456978677</v>
+        <v>8.092836489189647</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.277262411072501</v>
+        <v>-7.223131327042019</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.512928308295824</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.94828674469022</v>
+        <v>-25.766709029653</v>
       </c>
       <c r="F27" t="n">
-        <v>8.095916563515804</v>
+        <v>8.121696296725046</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.057232657026994</v>
+        <v>-7.000011720656621</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.761946359737216</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.88660703405722</v>
+        <v>-25.70131856280801</v>
       </c>
       <c r="F28" t="n">
-        <v>7.871452480242005</v>
+        <v>7.90062029521002</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.061632763207218</v>
+        <v>-7.012679137448798</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.993821210322968</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.05134212043792</v>
+        <v>-25.86562341658442</v>
       </c>
       <c r="F29" t="n">
-        <v>7.515767452660209</v>
+        <v>7.541112064258296</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.682676062938906</v>
+        <v>-6.629014323567647</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.188245417273058</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.06508511874081</v>
+        <v>-25.87925885673624</v>
       </c>
       <c r="F30" t="n">
-        <v>7.473164646821912</v>
+        <v>7.522113383573465</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.895807428295196</v>
+        <v>-6.866321827880832</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.334137939722861</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.8173786968217</v>
+        <v>-25.6479892759037</v>
       </c>
       <c r="F31" t="n">
-        <v>7.643971879731319</v>
+        <v>7.689742762019377</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.883560466093575</v>
+        <v>-6.859457662239683</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.415542640714623</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.73209486103524</v>
+        <v>-25.55720530739196</v>
       </c>
       <c r="F32" t="n">
-        <v>7.493830478848362</v>
+        <v>7.54565395163766</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.921039592735344</v>
+        <v>-6.916062583744825</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.420582618984525</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.50747921854856</v>
+        <v>-25.32551038296199</v>
       </c>
       <c r="F33" t="n">
-        <v>7.447683143031552</v>
+        <v>7.507578366158127</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.000549511411982</v>
+        <v>-7.001664204977638</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.344450366701127</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.30587124237759</v>
+        <v>-25.12392196281849</v>
       </c>
       <c r="F34" t="n">
-        <v>7.473682881549805</v>
+        <v>7.529060662331351</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.827410222227056</v>
+        <v>-6.846482238014891</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.181379099964127</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.00966098333182</v>
+        <v>-24.84434410513396</v>
       </c>
       <c r="F35" t="n">
-        <v>7.816695603332558</v>
+        <v>7.871941380928697</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.243694489924263</v>
+        <v>-7.259295310836589</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.937034367877885</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.59579188502687</v>
+        <v>-24.43931433124439</v>
       </c>
       <c r="F36" t="n">
-        <v>7.869897776058326</v>
+        <v>7.927636947156592</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.388819769761766</v>
+        <v>-7.390618924288791</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.614943613571137</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.08379552989607</v>
+        <v>-23.9466882213203</v>
       </c>
       <c r="F37" t="n">
-        <v>7.856008107549421</v>
+        <v>7.913478383270006</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.346700975603294</v>
+        <v>-7.342701767986158</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.222697352263782</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.49752538244309</v>
+        <v>-23.36895916886383</v>
       </c>
       <c r="F38" t="n">
-        <v>7.622030016912605</v>
+        <v>7.677715805126767</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.305902213298889</v>
+        <v>-7.275463256545477</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.77045692971189</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.97949599283852</v>
+        <v>-22.84724835708847</v>
       </c>
       <c r="F39" t="n">
-        <v>7.550640738641913</v>
+        <v>7.612579566638859</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.494969886856224</v>
+        <v>-7.473389810545661</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.265630991995217</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.65592685136549</v>
+        <v>-22.546691770938</v>
       </c>
       <c r="F40" t="n">
-        <v>7.419586020567391</v>
+        <v>7.490090388595172</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.479505958136172</v>
+        <v>-7.457764544599002</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.721975577754182</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.13481738743475</v>
+        <v>-22.02732279345189</v>
       </c>
       <c r="F41" t="n">
-        <v>7.505598318377026</v>
+        <v>7.571590133066644</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.875290620040404</v>
+        <v>-7.855050131611376</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.149485700850586</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.67904950028034</v>
+        <v>-21.58442277237121</v>
       </c>
       <c r="F42" t="n">
-        <v>7.556380432703672</v>
+        <v>7.629275525089374</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.943106034291382</v>
+        <v>-7.905123339942319</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.560342601158059</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.36316098859523</v>
+        <v>-21.27705091064826</v>
       </c>
       <c r="F43" t="n">
-        <v>7.418852669537354</v>
+        <v>7.479275905405556</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.142230394973961</v>
+        <v>-8.10675087214076</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.96653994319171</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.46339794282194</v>
+        <v>-20.37777187655479</v>
       </c>
       <c r="F44" t="n">
-        <v>7.673980603880444</v>
+        <v>7.742167582653306</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.142538402406576</v>
+        <v>-8.101358297566552</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3765480917346947</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.58673545449482</v>
+        <v>-19.51005138178726</v>
       </c>
       <c r="F45" t="n">
-        <v>7.804101521643385</v>
+        <v>7.887644870985228</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.276418966450175</v>
+        <v>-8.238670944430725</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1975679357406229</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.16190520279425</v>
+        <v>-19.09360577686344</v>
       </c>
       <c r="F46" t="n">
-        <v>7.602845553966831</v>
+        <v>7.671452987330249</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.198405083874814</v>
+        <v>-8.154619138374724</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.7472302293427315</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.96047323087048</v>
+        <v>-18.90701194078077</v>
       </c>
       <c r="F47" t="n">
-        <v>7.861547352329636</v>
+        <v>7.927504943971186</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.598286733533522</v>
+        <v>-8.562210751862555</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.26444170281991</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.17284933560362</v>
+        <v>-18.11753022290448</v>
       </c>
       <c r="F48" t="n">
-        <v>7.82986169882516</v>
+        <v>7.890964506647863</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.56912869657924</v>
+        <v>-8.519871952395071</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.74309772426382</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.6243418771907</v>
+        <v>-17.57031346230442</v>
       </c>
       <c r="F49" t="n">
-        <v>7.820513917695618</v>
+        <v>7.894548148681311</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.829209194878514</v>
+        <v>-8.76638056763179</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.179486764474771</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.17394211957616</v>
+        <v>-17.13198955165116</v>
       </c>
       <c r="F50" t="n">
-        <v>7.693761525663982</v>
+        <v>7.770474932412744</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.481319597808231</v>
+        <v>-9.438291448372512</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.571530700153066</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.62195857728086</v>
+        <v>-16.59953270278232</v>
       </c>
       <c r="F51" t="n">
-        <v>7.769394461895156</v>
+        <v>7.850801315236157</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.658668321905571</v>
+        <v>-9.582424259816033</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.917610745272075</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.94118881609729</v>
+        <v>-15.9138934907593</v>
       </c>
       <c r="F52" t="n">
-        <v>7.686892471015966</v>
+        <v>7.789556726214313</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.887263615981913</v>
+        <v>-9.832780523457012</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.219947240906507</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.73983995729026</v>
+        <v>-15.73757634711088</v>
       </c>
       <c r="F53" t="n">
-        <v>7.75609147421028</v>
+        <v>7.841399755031079</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.34361818396036</v>
+        <v>-10.284192305493</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.480737756160098</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.33263457534492</v>
+        <v>-15.33851116159895</v>
       </c>
       <c r="F54" t="n">
-        <v>7.711029497917925</v>
+        <v>7.808560295906012</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.57308861026588</v>
+        <v>-10.52143136371005</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.701343283597613</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.76605734755188</v>
+        <v>-14.7665706932729</v>
       </c>
       <c r="F55" t="n">
-        <v>7.772503870262514</v>
+        <v>7.865634562070377</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.1091975472643</v>
+        <v>-11.05382954449649</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.887070870543389</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.6095797937694</v>
+        <v>-14.62431037145941</v>
       </c>
       <c r="F56" t="n">
-        <v>7.519101755343445</v>
+        <v>7.612296004240577</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.50390662765781</v>
+        <v>-11.45289961901529</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.037779042998004</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.46702613154389</v>
+        <v>-14.47788461579531</v>
       </c>
       <c r="F57" t="n">
-        <v>7.559132943569745</v>
+        <v>7.654884143058274</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.18349324917959</v>
+        <v>-12.12220954810281</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.159745851402809</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.98961461098965</v>
+        <v>-14.00572388861613</v>
       </c>
       <c r="F58" t="n">
-        <v>7.268109920809765</v>
+        <v>7.346006467220321</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.38887064964495</v>
+        <v>-12.3319870547484</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.255064807102342</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.88420273393209</v>
+        <v>-13.89750572161697</v>
       </c>
       <c r="F59" t="n">
-        <v>7.49597186385607</v>
+        <v>7.591791509440736</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.317491149388</v>
+        <v>-12.2710602511729</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.324257552654724</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.23341725186331</v>
+        <v>-13.26246773066652</v>
       </c>
       <c r="F60" t="n">
-        <v>7.386868786613997</v>
+        <v>7.482321756683644</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.48763836637037</v>
+        <v>-12.44280617340076</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.372753367798534</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.90878230689329</v>
+        <v>-12.93845857857546</v>
       </c>
       <c r="F61" t="n">
-        <v>7.204391494313263</v>
+        <v>7.276401676456053</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.58731054936617</v>
+        <v>-12.53199632567389</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.396939616259584</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.86694218612623</v>
+        <v>-12.89534731602301</v>
       </c>
       <c r="F62" t="n">
-        <v>7.368447008739461</v>
+        <v>7.452493925788596</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.87650508355792</v>
+        <v>-12.84108422880712</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.402476674211322</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.87869046962743</v>
+        <v>-12.8984665024041</v>
       </c>
       <c r="F63" t="n">
-        <v>7.404982557055916</v>
+        <v>7.489425483661272</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.85344363816668</v>
+        <v>-12.80457801453186</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.388871906773788</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.21164650428494</v>
+        <v>-13.2228081069621</v>
       </c>
       <c r="F64" t="n">
-        <v>7.213367710920918</v>
+        <v>7.29873465982412</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.09838777120599</v>
+        <v>-13.05609786180717</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.355827842209821</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.11857448055948</v>
+        <v>-13.13766116336791</v>
       </c>
       <c r="F65" t="n">
-        <v>7.379804171691305</v>
+        <v>7.474543346758383</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.16854501974622</v>
+        <v>-13.1235808235912</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.306995611381994</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.04332777587079</v>
+        <v>-13.06467317985174</v>
       </c>
       <c r="F66" t="n">
-        <v>7.172236496149563</v>
+        <v>7.269801517185718</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.4537599023483</v>
+        <v>-13.41653011505674</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.237439837674706</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.38713251676598</v>
+        <v>-13.38900989540288</v>
       </c>
       <c r="F67" t="n">
-        <v>7.114111093508812</v>
+        <v>7.200543845909001</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.44005112709347</v>
+        <v>-13.39665141313587</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.152070116158586</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.25129146096875</v>
+        <v>-13.2567964827009</v>
       </c>
       <c r="F68" t="n">
-        <v>7.245395594906078</v>
+        <v>7.33054253850027</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.3888436691694</v>
+        <v>-13.35216145064694</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.048393756349622</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.73663295066113</v>
+        <v>-13.73659872761306</v>
       </c>
       <c r="F69" t="n">
-        <v>7.315826627830855</v>
+        <v>7.398485066929786</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.00457261843676</v>
+        <v>-12.97932578697601</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.925767077762531</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.66035955453039</v>
+        <v>-13.65363717008838</v>
       </c>
       <c r="F70" t="n">
-        <v>7.43313834760248</v>
+        <v>7.505265865910076</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.04777677211968</v>
+        <v>-13.01908319081776</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.78587607998653</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.96320908490144</v>
+        <v>-13.95965966591606</v>
       </c>
       <c r="F71" t="n">
-        <v>7.283089837849992</v>
+        <v>7.359016114493182</v>
       </c>
       <c r="G71" t="n">
-        <v>-12.87548328112273</v>
+        <v>-12.86903957007214</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.623833890185959</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.00752793215002</v>
+        <v>-14.01228004682466</v>
       </c>
       <c r="F72" t="n">
-        <v>7.373712469135128</v>
+        <v>7.44884183765901</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.13711848360569</v>
+        <v>-13.12620622027873</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.443462979473674</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.40527308580789</v>
+        <v>-14.40579132053578</v>
       </c>
       <c r="F73" t="n">
-        <v>7.505808545672303</v>
+        <v>7.57696804062025</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.08443943461468</v>
+        <v>-13.06859905236587</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.24214367071645</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.62773756527312</v>
+        <v>-14.64214546850992</v>
       </c>
       <c r="F74" t="n">
-        <v>7.345414897389425</v>
+        <v>7.422025634993981</v>
       </c>
       <c r="G74" t="n">
-        <v>-12.99988406085138</v>
+        <v>-12.98185829253307</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.020629545593436</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.17391296741052</v>
+        <v>-15.16870128609039</v>
       </c>
       <c r="F75" t="n">
-        <v>7.460326114789393</v>
+        <v>7.532478078131325</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.03196083490521</v>
+        <v>-13.00310591637668</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.780712417999112</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.3657380408408</v>
+        <v>-15.37051460054977</v>
       </c>
       <c r="F76" t="n">
-        <v>7.571345682723298</v>
+        <v>7.640446905780274</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.17649943391869</v>
+        <v>-13.14320040814813</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.520067250312918</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.90286878027441</v>
+        <v>-15.89802866347616</v>
       </c>
       <c r="F77" t="n">
-        <v>7.552718566560352</v>
+        <v>7.62486075188855</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.90783872856798</v>
+        <v>-12.87310233477855</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.242378811375203</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.3037282313065</v>
+        <v>-16.31576985521971</v>
       </c>
       <c r="F78" t="n">
-        <v>7.634120530894486</v>
+        <v>7.70685428605358</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.81022970647002</v>
+        <v>-12.79297151222981</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.946274332811636</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.28164458728864</v>
+        <v>-16.29126126379586</v>
       </c>
       <c r="F79" t="n">
-        <v>7.733362481285993</v>
+        <v>7.8050597669893</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.53715911692535</v>
+        <v>-12.52199341762418</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.632776496982281</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.05963713902769</v>
+        <v>-17.06127006732124</v>
       </c>
       <c r="F80" t="n">
-        <v>7.761488937791355</v>
+        <v>7.829353242111001</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.38153225033771</v>
+        <v>-12.38493988812395</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.302471128466801</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.9426700033024</v>
+        <v>-17.94640031554185</v>
       </c>
       <c r="F81" t="n">
-        <v>7.834760483705809</v>
+        <v>7.894088582035821</v>
       </c>
       <c r="G81" t="n">
-        <v>-11.93886201257977</v>
+        <v>-11.93448146242701</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9546126321213715</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.67003688893453</v>
+        <v>-18.66693236957404</v>
       </c>
       <c r="F82" t="n">
-        <v>7.879714901847092</v>
+        <v>7.924023971081942</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.88608518345142</v>
+        <v>-11.90779237394052</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5921308368403523</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.37426899407243</v>
+        <v>-19.37539346565182</v>
       </c>
       <c r="F83" t="n">
-        <v>8.024678844457986</v>
+        <v>8.07822324766444</v>
       </c>
       <c r="G83" t="n">
-        <v>-11.97245437876234</v>
+        <v>-11.98554713915194</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2166227635847148</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.3858680719264</v>
+        <v>-20.40334627147562</v>
       </c>
       <c r="F84" t="n">
-        <v>7.765087246845404</v>
+        <v>7.823574435994307</v>
       </c>
       <c r="G84" t="n">
-        <v>-11.78522986079383</v>
+        <v>-11.82037693116008</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1674281123597612</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.40657048056657</v>
+        <v>-21.43056572626939</v>
       </c>
       <c r="F85" t="n">
-        <v>8.222360948114826</v>
+        <v>8.27842318985774</v>
       </c>
       <c r="G85" t="n">
-        <v>-11.93728775236862</v>
+        <v>-11.96776582117697</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.5537664829319844</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.42424170494925</v>
+        <v>-22.43674778451482</v>
       </c>
       <c r="F86" t="n">
-        <v>8.194258936643799</v>
+        <v>8.246145966522366</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.50871741041486</v>
+        <v>-11.53428691632882</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.9346380100201576</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.28775765381124</v>
+        <v>-23.30248334249439</v>
       </c>
       <c r="F87" t="n">
-        <v>8.285595362931504</v>
+        <v>8.354105016157582</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.36459437698507</v>
+        <v>-11.39055500344839</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.299199769637086</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.52970717920678</v>
+        <v>-24.55227972391132</v>
       </c>
       <c r="F88" t="n">
-        <v>8.307840344175967</v>
+        <v>8.387814718504961</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.48975784178496</v>
+        <v>-11.51142103121226</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.635842825655755</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.90811866427164</v>
+        <v>-25.93604956050233</v>
       </c>
       <c r="F89" t="n">
-        <v>8.244865046723236</v>
+        <v>8.311800439738168</v>
       </c>
       <c r="G89" t="n">
-        <v>-10.98412208458802</v>
+        <v>-11.01120718263072</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.931157299827446</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.38782548261212</v>
+        <v>-27.43876893416537</v>
       </c>
       <c r="F90" t="n">
-        <v>8.286294490913473</v>
+        <v>8.357698436204766</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.12342455724702</v>
+        <v>-11.1701976859428</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.171798389622011</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.11215620404212</v>
+        <v>-29.16831867042581</v>
       </c>
       <c r="F91" t="n">
-        <v>8.420184832970806</v>
+        <v>8.487027334855267</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.79319169941439</v>
+        <v>-10.84363158326035</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.345311554005411</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.97657652823671</v>
+        <v>-31.03111339983714</v>
       </c>
       <c r="F92" t="n">
-        <v>8.442503149318272</v>
+        <v>8.515794251260195</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.75989267364383</v>
+        <v>-10.81527045442537</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.438814178517603</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.54405813136234</v>
+        <v>-32.61126730876182</v>
       </c>
       <c r="F93" t="n">
-        <v>8.318205038733826</v>
+        <v>8.403772436918572</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.93705561548023</v>
+        <v>-10.96905905443105</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.443068228081656</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.57170039431231</v>
+        <v>-34.66613400645021</v>
       </c>
       <c r="F94" t="n">
-        <v>8.240210712185933</v>
+        <v>8.318234372775027</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.23598669778522</v>
+        <v>-10.26481717127942</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.352181095879347</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.84749153430285</v>
+        <v>-36.94181758828967</v>
       </c>
       <c r="F95" t="n">
-        <v>8.042738835824371</v>
+        <v>8.12215097436367</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.767243386406019</v>
+        <v>-9.784266908316615</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.15664339273569</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.68109644821527</v>
+        <v>-38.78575052920845</v>
       </c>
       <c r="F96" t="n">
-        <v>7.793736827085525</v>
+        <v>7.864133636962234</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.253594546954201</v>
+        <v>-9.26825178954121</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>1.865838114854902</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.31261172784254</v>
+        <v>-41.41414173344776</v>
       </c>
       <c r="F97" t="n">
-        <v>7.535724378690956</v>
+        <v>7.603192673454382</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.838341859705912</v>
+        <v>-8.852060412974476</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.466677765555711</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.2337640877208</v>
+        <v>-43.35638037994303</v>
       </c>
       <c r="F98" t="n">
-        <v>7.249971705333511</v>
+        <v>7.318618250751864</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.306466802654235</v>
+        <v>-8.328037100951063</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.9931160646111377</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.821933432466</v>
+        <v>-45.94630487815346</v>
       </c>
       <c r="F99" t="n">
-        <v>6.911148862435704</v>
+        <v>6.965426616672194</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.041223513103498</v>
+        <v>-8.078008400770166</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.414572803460378</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.12581191690697</v>
+        <v>-48.23475365692244</v>
       </c>
       <c r="F100" t="n">
-        <v>6.305410689638676</v>
+        <v>6.371759401829578</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.642011657385558</v>
+        <v>-7.669913219575041</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1918253723728351</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.23062470874776</v>
+        <v>-50.34202073021042</v>
       </c>
       <c r="F101" t="n">
-        <v>5.986085206126126</v>
+        <v>6.061752365405369</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.380650239287152</v>
+        <v>-7.417195565617341</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.9265094142447583</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.23228801145866</v>
+        <v>-52.33515882719714</v>
       </c>
       <c r="F102" t="n">
-        <v>5.573296578338764</v>
+        <v>5.657226159223092</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.206596705818113</v>
+        <v>-7.251732017213471</v>
       </c>
     </row>
   </sheetData>
